--- a/PCAcombined/PCAcombined_predicted_factors_matrix_7.xlsx
+++ b/PCAcombined/PCAcombined_predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>0.1078894789862625</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.06838674304835665</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02910257164320098</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.008796033631357515</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.0447385331870053</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.07851749678841116</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.1101396859258587</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.1397287802153719</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.1674633705123688</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.1935391207673386</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.218147057336652</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2414622612634071</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2636390180502804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2848097896521064</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.3050863002367746</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.3245616621188441</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.3433128917595097</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.3614034414657867</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.3788855475101378</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.3958023033433543</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.4121894306083488</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.4280767565507378</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.4434894246969977</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.4584488732562778</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.4729736170727687</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.4870798669473522</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.5007820165127033</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.5140930226324436</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.5270247010979574</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.5395879555283686</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.5517929539790688</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.563649264869643</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.5751659614342733</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.5863517019295317</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.5972147912477169</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.6077632283187022</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.6180047426837776</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.6279468228413306</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.6375967383539392</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.6469615572339419</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.6560481597603172</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.6648632496004716</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.6734133628970635</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>0.1776995664763406</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.145145684450769</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1197749105372229</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1003332045169223</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.08571931754307442</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.07499062150439949</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.06735441992254879</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.06215438323442662</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0588546062062363</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.05702284959188606</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.05631419585489097</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.05645595908530942</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.057234310156033</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.0584827823128419</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.06007262451468046</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.06190485475966595</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.06390381043598953</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.06601197662722233</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.06818588045207506</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.07039285898914607</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.07260853306937773</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.07481484494341127</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.07699854216084216</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.07915001175728015</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.08126238759917159</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.08333086948229695</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.08535220554353865</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.08732430005740564</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.08924591710962053</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.09111645731874375</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.09293579003004404</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.09470412750865959</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.09642193084408253</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.09808983973739521</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.09970862023296036</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.1012791259031146</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1028022690977086</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.1042789997089013</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.1057102895369738</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.1070971208229866</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.1084404778759535</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.1097413409941959</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.111000682084652</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>-0.2355647068544958</v>
       </c>
+      <c r="F4" t="n">
+        <v>-0.1619074567211773</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.1108893845593383</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.07554325580344551</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-0.05105210630410752</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.03408934788502305</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.02235470325043078</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.01425444202920814</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.008682195773366623</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.004868646723214716</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.002278177009254458</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.0005375732996234757</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0006133147634859726</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.001355820637954857</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.001816286392924361</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.002082669335251166</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.002216132696769015</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.002259142583123138</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.002241126865600345</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.002182430390822456</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.002097078618257195</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.00199470747114206</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.00188190970714684</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.001763173079043369</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.00164153307176581</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.001519026243247982</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.001397004427683326</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.001276351987064716</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.001157635620101926</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.001041207347551324</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0009272750619040893</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.0008159506651718018</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.0007072827652140239</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.0006012787675265366</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.0004979197109034423</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.0003971701587048586</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.000298984736902885</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.0002033124103901377</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.0001100992433887456</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1.92901513542728e-05</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-6.917001209847382e-05</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.0001553358020811553</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.0002392608085562977</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.1321248428500965</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.09203987953582257</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.06351637360050473</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0432650625733569</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02892880905324352</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.01880155517801365</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01165067425320424</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.006590965164592127</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.002991331969145654</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0004051391434696048</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.001481464338012028</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.00288751895383264</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.003964880903487115</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.004818134263294572</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.00551882355381863</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.006115550476472848</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.006641087555458987</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.007117357896352468</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.007558899670075618</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.007975261708219116</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.008372649724429294</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.00875505024918012</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.009124992649178617</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.009484061821739746</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.009833240167614058</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.01017313341832404</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.01050411800314773</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.01082643583000915</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.01114025413888853</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.01144570240099724</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.01174289432376628</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.01203194034318738</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.01231295416275449</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.01258605566667663</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.01285137170883179</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.01310903572943114</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.01335918678947263</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.01360196837766928</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.01383752719361896</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.01406601201602186</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.01428757270660834</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.01450235936588026</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.01471052163751874</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.05876857029208245</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.04079909686078525</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.02837293412686952</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.01962365966727601</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.01341354463150001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.008990867551899651</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.005838652350572992</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.003594109640253579</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.001999896968211258</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.0008723511283894522</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-7.991280498269955e-05</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0004718676752891843</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0008508920207309424</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.001106015292335985</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.001272402142135017</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.001375364991150257</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.001433121012220229</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.001458775697620891</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.001461751495453916</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.001448817434071204</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.001424831425917635</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.001393275476892404</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.00135664153778687</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.001316709605333536</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.001274748084166861</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.001231658068656788</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.001188077179983227</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.001144454246082738</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.001101102972232071</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.001058240482009132</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.001016014969961238</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.0009745255239444761</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.0009338363206286835</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0008939867809051807</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0008549988270161099</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0008168820624095024</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.0007796374641920335</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.0007432600116055793</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0007077405542197138</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.000673067137438865</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.0006392259410929592</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0006062019425094743</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0005739793836232693</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>0.04113126279503314</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.02815841668328103</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.01923014206207754</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.01310551253515183</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.008915499921928178</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.006061304217004643</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.004130241834282098</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.002836969513679983</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.00198369396739688</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.001433166546455958</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.001090178062354845</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0008887694749714756</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0007833424562730647</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0007424615298681428</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0007445278284795665</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.000774759803433714</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0008230883155672167</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0008826916830236923</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0009489783298074955</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.001018882081329159</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.00109037544844376</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.001162134570637011</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.001233309409075361</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.001303366778105807</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.001371983628251228</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.001438974878226259</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.001504244908714216</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.00156775519152255</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.001629502868070021</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.001689506716599699</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.001747798073405239</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.001804415050710927</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.001859398928790383</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.001912791966681426</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.001964636126179413</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.002014972373946137</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.002063840341475828</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.002111278199910838</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.002157322658165847</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.002202009026817041</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.002245371312549069</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.002287442322264965</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.002328253765175997</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -567,6 +1449,132 @@
       </c>
       <c r="E8" t="n">
         <v>-0.00418013468729183</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.003259117033328052</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.002444690700016592</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.001822211939031341</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.001375941150558329</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.001066894438528151</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.0008582542574944738</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.0007213548080151917</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.0006354064760027498</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.0005857262626997109</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.00056200025631329</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.000556944385743235</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.0005653598266516265</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.0005834905856398042</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.0006085913575255531</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.0006386357489984092</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.0006721167911319261</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.0007079081682135049</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.0007451658347734132</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.0007832569795797556</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.0008217079049830125</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.0008601652817640693</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.0008983670594589247</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.0009361204716307515</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.0009732853290975184</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.001009761296297412</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.001045478190105304</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.001080388582882782</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.001114462166732758</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.001147681465286934</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.00118003857638118</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.00121153270264685</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.001242168283462672</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.001271953585038946</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.001300899638832267</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.001329019444239029</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.001356327371364455</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.001382838714932259</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.00140856936211958</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.001433535546089441</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.001457753663838648</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.001481240142235964</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.001504011340071597</v>
       </c>
     </row>
   </sheetData>
